--- a/AbandonedPlacesInTheWorld.xlsx
+++ b/AbandonedPlacesInTheWorld.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -48,7 +48,20 @@
     <t>These are parts of a cooling tower in an old power station in Monceau, Belgium. The trumpet-like structure in the middle of this abandoned place introduced hot water to the structure, where it then cooled while dripping down hundreds of small concrete troughs and slats.</t>
   </si>
   <si>
-    <t>Charleroi，Belgium</t>
+    <t>Hashima</t>
+  </si>
+  <si>
+    <t>Charleroi,Belgium</t>
+  </si>
+  <si>
+    <t>Nagasaki,Japan</t>
+  </si>
+  <si>
+    <t>Hashima Island ( 端島 , or simply Hashima — -shima is a Japanese suffix for island ) , commonly called Gunkanjima (軍艦島; meaning Battleship Island ), is an abandoned island lying about 15 kilometers (9 miles) from the city of Nagasaki , in southern Japan. It is one of 505 uninhabited islands in Nagasaki Prefecture . The island's most notable features are its abandoned concrete buildings, undisturbed except by nature, and the surrounding sea wall .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+en.wikipedia.org</t>
   </si>
 </sst>
 </file>
@@ -401,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -453,6 +466,26 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -461,6 +494,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/AbandonedPlacesInTheWorld.xlsx
+++ b/AbandonedPlacesInTheWorld.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Sources</t>
   </si>
   <si>
-    <t xml:space="preserve">Descibution </t>
-  </si>
-  <si>
     <t>12/09/2019</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>www.boredpanda.com</t>
   </si>
   <si>
-    <t>These are parts of a cooling tower in an old power station in Monceau, Belgium. The trumpet-like structure in the middle of this abandoned place introduced hot water to the structure, where it then cooled while dripping down hundreds of small concrete troughs and slats.</t>
-  </si>
-  <si>
     <t>Hashima</t>
   </si>
   <si>
@@ -55,24 +49,36 @@
   </si>
   <si>
     <t>Nagasaki,Japan</t>
-  </si>
-  <si>
-    <t>Hashima Island ( 端島 , or simply Hashima — -shima is a Japanese suffix for island ) , commonly called Gunkanjima (軍艦島; meaning Battleship Island ), is an abandoned island lying about 15 kilometers (9 miles) from the city of Nagasaki , in southern Japan. It is one of 505 uninhabited islands in Nagasaki Prefecture . The island's most notable features are its abandoned concrete buildings, undisturbed except by nature, and the surrounding sea wall .</t>
   </si>
   <si>
     <t xml:space="preserve">
 en.wikipedia.org</t>
   </si>
+  <si>
+    <t>Lake Dolores Water park</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA.,America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ceqanet.opr.ca.gov/2019089076/2</t>
+  </si>
+  <si>
+    <t>12/10/2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -80,8 +86,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -414,27 +427,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -443,58 +455,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.baidu.com/link?url=gMSTufCtkYD_RYdTsN7qhl0nuTZwm6XjlTpiL9BbtBrf4dQ3xXrrhOEBID41xV8g_59cnJZ-LfBZagi-0eFsiDZhQmJzVr6SJy0bg9J1uHy&amp;wd=&amp;eqid=c880fee9000e9592000000025def93d7"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -504,8 +527,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -516,8 +540,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>